--- a/natmiOut/OldD2/LR-pairs_lrc2p/Areg-Erbb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Areg-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>M1</t>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.418580490219693</v>
+        <v>1.035526</v>
       </c>
       <c r="H2">
-        <v>0.418580490219693</v>
+        <v>3.106578</v>
       </c>
       <c r="I2">
-        <v>0.3473538443588975</v>
+        <v>0.4381485279869601</v>
       </c>
       <c r="J2">
-        <v>0.3473538443588975</v>
+        <v>0.4990673546495796</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.127706855121299</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N2">
-        <v>0.127706855121299</v>
+        <v>0.481669</v>
       </c>
       <c r="O2">
-        <v>0.01620821741097792</v>
+        <v>0.01905578313479183</v>
       </c>
       <c r="P2">
-        <v>0.01620821741097792</v>
+        <v>0.02595755287029415</v>
       </c>
       <c r="Q2">
-        <v>0.05345559802108865</v>
+        <v>0.1662602576313333</v>
       </c>
       <c r="R2">
-        <v>0.05345559802108865</v>
+        <v>1.496342318682</v>
       </c>
       <c r="S2">
-        <v>0.005629986627907996</v>
+        <v>0.008349263330147778</v>
       </c>
       <c r="T2">
-        <v>0.005629986627907996</v>
+        <v>0.01295456724415431</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.418580490219693</v>
+        <v>1.035526</v>
       </c>
       <c r="H3">
-        <v>0.418580490219693</v>
+        <v>3.106578</v>
       </c>
       <c r="I3">
-        <v>0.3473538443588975</v>
+        <v>0.4381485279869601</v>
       </c>
       <c r="J3">
-        <v>0.3473538443588975</v>
+        <v>0.4990673546495796</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.553741808692665</v>
+        <v>0.5664446666666666</v>
       </c>
       <c r="N3">
-        <v>0.553741808692665</v>
+        <v>1.699334</v>
       </c>
       <c r="O3">
-        <v>0.07027945067094503</v>
+        <v>0.06722903109309158</v>
       </c>
       <c r="P3">
-        <v>0.07027945067094503</v>
+        <v>0.09157855736883304</v>
       </c>
       <c r="Q3">
-        <v>0.2317855177377152</v>
+        <v>0.5865681798946666</v>
       </c>
       <c r="R3">
-        <v>0.2317855177377152</v>
+        <v>5.279113619052</v>
       </c>
       <c r="S3">
-        <v>0.02441183736998425</v>
+        <v>0.02945630101142765</v>
       </c>
       <c r="T3">
-        <v>0.02441183736998425</v>
+        <v>0.04570386836868827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.418580490219693</v>
+        <v>1.035526</v>
       </c>
       <c r="H4">
-        <v>0.418580490219693</v>
+        <v>3.106578</v>
       </c>
       <c r="I4">
-        <v>0.3473538443588975</v>
+        <v>0.4381485279869601</v>
       </c>
       <c r="J4">
-        <v>0.3473538443588975</v>
+        <v>0.4990673546495796</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.887055446878028</v>
+        <v>0.8891996666666667</v>
       </c>
       <c r="N4">
-        <v>0.887055446878028</v>
+        <v>2.667599</v>
       </c>
       <c r="O4">
-        <v>0.1125827389996808</v>
+        <v>0.105535519276905</v>
       </c>
       <c r="P4">
-        <v>0.1125827389996808</v>
+        <v>0.1437591833380263</v>
       </c>
       <c r="Q4">
-        <v>0.3713041038062538</v>
+        <v>0.9207893740246667</v>
       </c>
       <c r="R4">
-        <v>0.3713041038062538</v>
+        <v>8.287104366222</v>
       </c>
       <c r="S4">
-        <v>0.03910604719999349</v>
+        <v>0.04624023242151536</v>
       </c>
       <c r="T4">
-        <v>0.03910604719999349</v>
+        <v>0.07174551533509273</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.418580490219693</v>
+        <v>1.035526</v>
       </c>
       <c r="H5">
-        <v>0.418580490219693</v>
+        <v>3.106578</v>
       </c>
       <c r="I5">
-        <v>0.3473538443588975</v>
+        <v>0.4381485279869601</v>
       </c>
       <c r="J5">
-        <v>0.3473538443588975</v>
+        <v>0.4990673546495796</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>6.3106384182577</v>
+        <v>0.088632</v>
       </c>
       <c r="N5">
-        <v>6.3106384182577</v>
+        <v>0.265896</v>
       </c>
       <c r="O5">
-        <v>0.8009295929183963</v>
+        <v>0.01051937432637061</v>
       </c>
       <c r="P5">
-        <v>0.8009295929183963</v>
+        <v>0.01432936202661939</v>
       </c>
       <c r="Q5">
-        <v>2.641510122713536</v>
+        <v>0.09178074043199999</v>
       </c>
       <c r="R5">
-        <v>2.641510122713536</v>
+        <v>0.8260266638880001</v>
       </c>
       <c r="S5">
-        <v>0.2782059731610118</v>
+        <v>0.004609048376443104</v>
       </c>
       <c r="T5">
-        <v>0.2782059731610118</v>
+        <v>0.007151316800441078</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.786474519297351</v>
+        <v>1.035526</v>
       </c>
       <c r="H6">
-        <v>0.786474519297351</v>
+        <v>3.106578</v>
       </c>
       <c r="I6">
-        <v>0.6526461556411025</v>
+        <v>0.4381485279869601</v>
       </c>
       <c r="J6">
-        <v>0.6526461556411025</v>
+        <v>0.4990673546495796</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.127706855121299</v>
+        <v>6.7207635</v>
       </c>
       <c r="N6">
-        <v>0.127706855121299</v>
+        <v>13.441527</v>
       </c>
       <c r="O6">
-        <v>0.01620821741097792</v>
+        <v>0.797660292168841</v>
       </c>
       <c r="P6">
-        <v>0.01620821741097792</v>
+        <v>0.7243753443962272</v>
       </c>
       <c r="Q6">
-        <v>0.1004381874925001</v>
+        <v>6.959525344101</v>
       </c>
       <c r="R6">
-        <v>0.1004381874925001</v>
+        <v>41.757152064606</v>
       </c>
       <c r="S6">
-        <v>0.01057823078306992</v>
+        <v>0.3494936828474262</v>
       </c>
       <c r="T6">
-        <v>0.01057823078306992</v>
+        <v>0.3615120869012033</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.786474519297351</v>
+        <v>0.4624146666666666</v>
       </c>
       <c r="H7">
-        <v>0.786474519297351</v>
+        <v>1.387244</v>
       </c>
       <c r="I7">
-        <v>0.6526461556411025</v>
+        <v>0.195655450002782</v>
       </c>
       <c r="J7">
-        <v>0.6526461556411025</v>
+        <v>0.2228587833086765</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.553741808692665</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N7">
-        <v>0.553741808692665</v>
+        <v>0.481669</v>
       </c>
       <c r="O7">
-        <v>0.07027945067094503</v>
+        <v>0.01905578313479183</v>
       </c>
       <c r="P7">
-        <v>0.07027945067094503</v>
+        <v>0.02595755287029415</v>
       </c>
       <c r="Q7">
-        <v>0.4355038228064094</v>
+        <v>0.07424360335955554</v>
       </c>
       <c r="R7">
-        <v>0.4355038228064094</v>
+        <v>0.6681924302359999</v>
       </c>
       <c r="S7">
-        <v>0.04586761330096078</v>
+        <v>0.003728367824393118</v>
       </c>
       <c r="T7">
-        <v>0.04586761330096078</v>
+        <v>0.005784868650344398</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.786474519297351</v>
+        <v>0.4624146666666666</v>
       </c>
       <c r="H8">
-        <v>0.786474519297351</v>
+        <v>1.387244</v>
       </c>
       <c r="I8">
-        <v>0.6526461556411025</v>
+        <v>0.195655450002782</v>
       </c>
       <c r="J8">
-        <v>0.6526461556411025</v>
+        <v>0.2228587833086765</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.887055446878028</v>
+        <v>0.5664446666666666</v>
       </c>
       <c r="N8">
-        <v>0.887055446878028</v>
+        <v>1.699334</v>
       </c>
       <c r="O8">
-        <v>0.1125827389996808</v>
+        <v>0.06722903109309158</v>
       </c>
       <c r="P8">
-        <v>0.1125827389996808</v>
+        <v>0.09157855736883304</v>
       </c>
       <c r="Q8">
-        <v>0.6976465061734939</v>
+        <v>0.2619323217217777</v>
       </c>
       <c r="R8">
-        <v>0.6976465061734939</v>
+        <v>2.357390895496</v>
       </c>
       <c r="S8">
-        <v>0.07347669179968727</v>
+        <v>0.01315372633176986</v>
       </c>
       <c r="T8">
-        <v>0.07347669179968727</v>
+        <v>0.02040908587238196</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.786474519297351</v>
+        <v>0.4624146666666666</v>
       </c>
       <c r="H9">
-        <v>0.786474519297351</v>
+        <v>1.387244</v>
       </c>
       <c r="I9">
-        <v>0.6526461556411025</v>
+        <v>0.195655450002782</v>
       </c>
       <c r="J9">
-        <v>0.6526461556411025</v>
+        <v>0.2228587833086765</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.3106384182577</v>
+        <v>0.8891996666666667</v>
       </c>
       <c r="N9">
-        <v>6.3106384182577</v>
+        <v>2.667599</v>
       </c>
       <c r="O9">
-        <v>0.8009295929183963</v>
+        <v>0.105535519276905</v>
       </c>
       <c r="P9">
-        <v>0.8009295929183963</v>
+        <v>0.1437591833380263</v>
       </c>
       <c r="Q9">
-        <v>4.963156316458621</v>
+        <v>0.4111789674617778</v>
       </c>
       <c r="R9">
-        <v>4.963156316458621</v>
+        <v>3.700610707156</v>
       </c>
       <c r="S9">
-        <v>0.5227236197573846</v>
+        <v>0.02064859951540012</v>
       </c>
       <c r="T9">
-        <v>0.5227236197573846</v>
+        <v>0.0320379966881615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4624146666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.387244</v>
+      </c>
+      <c r="I10">
+        <v>0.195655450002782</v>
+      </c>
+      <c r="J10">
+        <v>0.2228587833086765</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.088632</v>
+      </c>
+      <c r="N10">
+        <v>0.265896</v>
+      </c>
+      <c r="O10">
+        <v>0.01051937432637061</v>
+      </c>
+      <c r="P10">
+        <v>0.01432936202661939</v>
+      </c>
+      <c r="Q10">
+        <v>0.040984736736</v>
+      </c>
+      <c r="R10">
+        <v>0.368862630624</v>
+      </c>
+      <c r="S10">
+        <v>0.002058172917573754</v>
+      </c>
+      <c r="T10">
+        <v>0.003193424186841947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.4624146666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.387244</v>
+      </c>
+      <c r="I11">
+        <v>0.195655450002782</v>
+      </c>
+      <c r="J11">
+        <v>0.2228587833086765</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.7207635</v>
+      </c>
+      <c r="N11">
+        <v>13.441527</v>
+      </c>
+      <c r="O11">
+        <v>0.797660292168841</v>
+      </c>
+      <c r="P11">
+        <v>0.7243753443962272</v>
+      </c>
+      <c r="Q11">
+        <v>3.107779613598</v>
+      </c>
+      <c r="R11">
+        <v>18.646677681588</v>
+      </c>
+      <c r="S11">
+        <v>0.1560665834136452</v>
+      </c>
+      <c r="T11">
+        <v>0.1614334079109467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.8654725</v>
+      </c>
+      <c r="H12">
+        <v>1.730945</v>
+      </c>
+      <c r="I12">
+        <v>0.3661960220102579</v>
+      </c>
+      <c r="J12">
+        <v>0.2780738620417439</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.1605563333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.481669</v>
+      </c>
+      <c r="O12">
+        <v>0.01905578313479183</v>
+      </c>
+      <c r="P12">
+        <v>0.02595755287029415</v>
+      </c>
+      <c r="Q12">
+        <v>0.1389570912008333</v>
+      </c>
+      <c r="R12">
+        <v>0.833742547205</v>
+      </c>
+      <c r="S12">
+        <v>0.006978151980250929</v>
+      </c>
+      <c r="T12">
+        <v>0.00721811697579545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.8654725</v>
+      </c>
+      <c r="H13">
+        <v>1.730945</v>
+      </c>
+      <c r="I13">
+        <v>0.3661960220102579</v>
+      </c>
+      <c r="J13">
+        <v>0.2780738620417439</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5664446666666666</v>
+      </c>
+      <c r="N13">
+        <v>1.699334</v>
+      </c>
+      <c r="O13">
+        <v>0.06722903109309158</v>
+      </c>
+      <c r="P13">
+        <v>0.09157855736883304</v>
+      </c>
+      <c r="Q13">
+        <v>0.4902422817716666</v>
+      </c>
+      <c r="R13">
+        <v>2.94145369063</v>
+      </c>
+      <c r="S13">
+        <v>0.02461900374989408</v>
+      </c>
+      <c r="T13">
+        <v>0.02546560312776281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8654725</v>
+      </c>
+      <c r="H14">
+        <v>1.730945</v>
+      </c>
+      <c r="I14">
+        <v>0.3661960220102579</v>
+      </c>
+      <c r="J14">
+        <v>0.2780738620417439</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.8891996666666667</v>
+      </c>
+      <c r="N14">
+        <v>2.667599</v>
+      </c>
+      <c r="O14">
+        <v>0.105535519276905</v>
+      </c>
+      <c r="P14">
+        <v>0.1437591833380263</v>
+      </c>
+      <c r="Q14">
+        <v>0.7695778585091667</v>
+      </c>
+      <c r="R14">
+        <v>4.617467151055</v>
+      </c>
+      <c r="S14">
+        <v>0.03864668733998949</v>
+      </c>
+      <c r="T14">
+        <v>0.0399756713147721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.8654725</v>
+      </c>
+      <c r="H15">
+        <v>1.730945</v>
+      </c>
+      <c r="I15">
+        <v>0.3661960220102579</v>
+      </c>
+      <c r="J15">
+        <v>0.2780738620417439</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.088632</v>
+      </c>
+      <c r="N15">
+        <v>0.265896</v>
+      </c>
+      <c r="O15">
+        <v>0.01051937432637061</v>
+      </c>
+      <c r="P15">
+        <v>0.01432936202661939</v>
+      </c>
+      <c r="Q15">
+        <v>0.07670855862000001</v>
+      </c>
+      <c r="R15">
+        <v>0.46025135172</v>
+      </c>
+      <c r="S15">
+        <v>0.003852153032353756</v>
+      </c>
+      <c r="T15">
+        <v>0.003984621039336364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8654725</v>
+      </c>
+      <c r="H16">
+        <v>1.730945</v>
+      </c>
+      <c r="I16">
+        <v>0.3661960220102579</v>
+      </c>
+      <c r="J16">
+        <v>0.2780738620417439</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.7207635</v>
+      </c>
+      <c r="N16">
+        <v>13.441527</v>
+      </c>
+      <c r="O16">
+        <v>0.797660292168841</v>
+      </c>
+      <c r="P16">
+        <v>0.7243753443962272</v>
+      </c>
+      <c r="Q16">
+        <v>5.81663598825375</v>
+      </c>
+      <c r="R16">
+        <v>23.266543953015</v>
+      </c>
+      <c r="S16">
+        <v>0.2921000259077697</v>
+      </c>
+      <c r="T16">
+        <v>0.2014298495840772</v>
       </c>
     </row>
   </sheetData>
